--- a/unir/Asociación de Municipalidades Desarrollo Apicultura Turismo y Medio Ambiente Zona de Amortiguación de la Región de Los Lagos.xlsx
+++ b/unir/Asociación de Municipalidades Desarrollo Apicultura Turismo y Medio Ambiente Zona de Amortiguación de la Región de Los Lagos.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -345,14 +358,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>organismo_nombre</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>anyo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mes</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Nombres</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Paterno</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Materno</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>tipo_calificacionp</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>remuneracionbruta_mensual</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>remuliquida_mensual</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>tipo_pago</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>num_cuotas</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Nombres2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>NOMBRECOMPLETO</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>NOMBRECOMPLETO2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Asociación de Municipalidades Desarrollo Apicultura Turismo y Medio Ambiente Zona de Amortiguación de la Región de Los Lagos</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Junio</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Soto</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>tecnico</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>850</v>
+      </c>
+      <c r="I2" t="n">
+        <v>500</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pago mensual</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>JUAN</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Juan Soto nan</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>JUAN SOTO NAN</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>